--- a/data/mpi_2024_input.xlsx
+++ b/data/mpi_2024_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastmidstream.sharepoint.com/sites/NMRNG/Shared Documents/Major Projects/MPI Data Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuasamuel/Documents/GitHub/MPI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BCF5E1-88F0-BA40-A0E2-1FE238139044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1651C-22FA-F54B-8A92-C24C2A85FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5600" yWindow="2300" windowWidth="27580" windowHeight="16940" xr2:uid="{8D0C2F2B-6F44-EB49-A1FC-82A6E2BE5C4D}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <definedName name="Status">#REF!</definedName>
     <definedName name="Status_Change">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="730">
   <si>
     <t>Unique ID</t>
   </si>
@@ -2287,6 +2287,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2420,7 +2423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2431,7 +2434,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2771,9 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85BF2B2-D70C-FE48-8575-7294DE477936}">
   <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T364"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7225,8 +7225,8 @@
       <c r="O72" s="5">
         <v>49.088999999999999</v>
       </c>
-      <c r="P72" s="5">
-        <v>0</v>
+      <c r="P72" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q72" s="5" t="s">
         <v>724</v>
@@ -8772,11 +8772,11 @@
       <c r="N97" s="8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="O97" s="8">
-        <v>0</v>
-      </c>
-      <c r="P97" s="8">
-        <v>0</v>
+      <c r="O97" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q97" s="8" t="s">
         <v>724</v>
@@ -9539,7 +9539,7 @@
       <c r="A110" s="4">
         <v>1050</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -9640,11 +9640,11 @@
       <c r="N111" s="8">
         <v>0.53500000000000003</v>
       </c>
-      <c r="O111" s="8">
-        <v>0</v>
-      </c>
-      <c r="P111" s="8">
-        <v>0</v>
+      <c r="O111" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q111" s="8" t="s">
         <v>723</v>
@@ -9950,8 +9950,8 @@
       <c r="N116" s="5">
         <v>0.873</v>
       </c>
-      <c r="O116" s="5">
-        <v>0</v>
+      <c r="O116" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="P116" s="5">
         <v>-113.42645899999999</v>
@@ -10012,11 +10012,11 @@
       <c r="N117" s="8">
         <v>0.89400000000000002</v>
       </c>
-      <c r="O117" s="8">
-        <v>0</v>
-      </c>
-      <c r="P117" s="8">
-        <v>0</v>
+      <c r="O117" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q117" s="8" t="s">
         <v>724</v>
@@ -10074,11 +10074,11 @@
       <c r="N118" s="5">
         <v>0.89400000000000002</v>
       </c>
-      <c r="O118" s="5">
-        <v>0</v>
-      </c>
-      <c r="P118" s="5">
-        <v>0</v>
+      <c r="O118" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q118" s="5" t="s">
         <v>724</v>
@@ -10446,11 +10446,11 @@
       <c r="N124" s="5">
         <v>0.60099999999999998</v>
       </c>
-      <c r="O124" s="5">
-        <v>0</v>
-      </c>
-      <c r="P124" s="5">
-        <v>0</v>
+      <c r="O124" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q124" s="5" t="s">
         <v>724</v>
@@ -11252,11 +11252,11 @@
       <c r="N137" s="8">
         <v>0.37</v>
       </c>
-      <c r="O137" s="8">
-        <v>0</v>
-      </c>
-      <c r="P137" s="8">
-        <v>0</v>
+      <c r="O137" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P137" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q137" s="8" t="s">
         <v>724</v>
@@ -11438,11 +11438,11 @@
       <c r="N140" s="5">
         <v>0.82899999999999996</v>
       </c>
-      <c r="O140" s="5">
-        <v>0</v>
-      </c>
-      <c r="P140" s="5">
-        <v>0</v>
+      <c r="O140" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P140" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q140" s="5" t="s">
         <v>724</v>
@@ -11872,11 +11872,11 @@
       <c r="N147" s="8">
         <v>0.69099999999999995</v>
       </c>
-      <c r="O147" s="8">
-        <v>0</v>
-      </c>
-      <c r="P147" s="8">
-        <v>0</v>
+      <c r="O147" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P147" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q147" s="8" t="s">
         <v>723</v>
@@ -12864,11 +12864,11 @@
       <c r="N163" s="8">
         <v>0.40100000000000002</v>
       </c>
-      <c r="O163" s="8">
-        <v>0</v>
-      </c>
-      <c r="P163" s="8">
-        <v>0</v>
+      <c r="O163" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P163" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q163" s="8" t="s">
         <v>723</v>
@@ -13050,11 +13050,11 @@
       <c r="N166" s="5">
         <v>0.28899999999999998</v>
       </c>
-      <c r="O166" s="5">
-        <v>0</v>
-      </c>
-      <c r="P166" s="5">
-        <v>0</v>
+      <c r="O166" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q166" s="5" t="s">
         <v>723</v>
@@ -13298,11 +13298,11 @@
       <c r="N170" s="5">
         <v>0.77700000000000002</v>
       </c>
-      <c r="O170" s="5">
-        <v>0</v>
-      </c>
-      <c r="P170" s="5">
-        <v>0</v>
+      <c r="O170" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P170" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q170" s="5" t="s">
         <v>724</v>
@@ -13608,11 +13608,11 @@
       <c r="N175" s="8">
         <v>0.34300000000000003</v>
       </c>
-      <c r="O175" s="8">
-        <v>0</v>
-      </c>
-      <c r="P175" s="8">
-        <v>0</v>
+      <c r="O175" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P175" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q175" s="8" t="s">
         <v>724</v>
@@ -13670,11 +13670,11 @@
       <c r="N176" s="5">
         <v>0.97599999999999998</v>
       </c>
-      <c r="O176" s="5">
-        <v>0</v>
-      </c>
-      <c r="P176" s="5">
-        <v>0</v>
+      <c r="O176" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P176" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q176" s="5" t="s">
         <v>724</v>
@@ -13732,11 +13732,11 @@
       <c r="N177" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="O177" s="8">
-        <v>0</v>
-      </c>
-      <c r="P177" s="8">
-        <v>0</v>
+      <c r="O177" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P177" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q177" s="8" t="s">
         <v>724</v>
@@ -13794,11 +13794,11 @@
       <c r="N178" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="O178" s="5">
-        <v>0</v>
-      </c>
-      <c r="P178" s="5">
-        <v>0</v>
+      <c r="O178" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q178" s="5" t="s">
         <v>724</v>
@@ -13856,11 +13856,11 @@
       <c r="N179" s="8">
         <v>0.59499999999999997</v>
       </c>
-      <c r="O179" s="8">
-        <v>0</v>
-      </c>
-      <c r="P179" s="8">
-        <v>0</v>
+      <c r="O179" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P179" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q179" s="8" t="s">
         <v>724</v>
@@ -14166,11 +14166,11 @@
       <c r="N184" s="5">
         <v>0.46500000000000002</v>
       </c>
-      <c r="O184" s="5">
-        <v>0</v>
-      </c>
-      <c r="P184" s="5">
-        <v>0</v>
+      <c r="O184" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P184" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q184" s="5" t="s">
         <v>724</v>
@@ -14228,11 +14228,11 @@
       <c r="N185" s="8">
         <v>0.36299999999999999</v>
       </c>
-      <c r="O185" s="8">
-        <v>0</v>
-      </c>
-      <c r="P185" s="8">
-        <v>0</v>
+      <c r="O185" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q185" s="8" t="s">
         <v>724</v>
@@ -14290,11 +14290,11 @@
       <c r="N186" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O186" s="5">
-        <v>0</v>
-      </c>
-      <c r="P186" s="5">
-        <v>0</v>
+      <c r="O186" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q186" s="5" t="s">
         <v>724</v>
@@ -14352,11 +14352,11 @@
       <c r="N187" s="8">
         <v>0.53300000000000003</v>
       </c>
-      <c r="O187" s="8">
-        <v>0</v>
-      </c>
-      <c r="P187" s="8">
-        <v>0</v>
+      <c r="O187" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q187" s="8" t="s">
         <v>724</v>
@@ -14414,11 +14414,11 @@
       <c r="N188" s="5">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O188" s="5">
-        <v>0</v>
-      </c>
-      <c r="P188" s="5">
-        <v>0</v>
+      <c r="O188" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q188" s="5" t="s">
         <v>724</v>
@@ -14538,11 +14538,11 @@
       <c r="N190" s="5">
         <v>0.77600000000000002</v>
       </c>
-      <c r="O190" s="5">
-        <v>0</v>
-      </c>
-      <c r="P190" s="5">
-        <v>0</v>
+      <c r="O190" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q190" s="5" t="s">
         <v>724</v>
@@ -14662,11 +14662,11 @@
       <c r="N192" s="5">
         <v>0.318</v>
       </c>
-      <c r="O192" s="5">
-        <v>0</v>
-      </c>
-      <c r="P192" s="5">
-        <v>0</v>
+      <c r="O192" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P192" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q192" s="5" t="s">
         <v>724</v>
@@ -14972,11 +14972,11 @@
       <c r="N197" s="8">
         <v>0.55100000000000005</v>
       </c>
-      <c r="O197" s="8">
-        <v>0</v>
-      </c>
-      <c r="P197" s="8">
-        <v>0</v>
+      <c r="O197" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P197" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q197" s="8" t="s">
         <v>724</v>
@@ -15158,11 +15158,11 @@
       <c r="N200" s="5">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O200" s="5">
-        <v>0</v>
-      </c>
-      <c r="P200" s="5">
-        <v>0</v>
+      <c r="O200" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P200" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q200" s="5" t="s">
         <v>724</v>
@@ -15220,11 +15220,11 @@
       <c r="N201" s="8">
         <v>0.75</v>
       </c>
-      <c r="O201" s="8">
-        <v>0</v>
-      </c>
-      <c r="P201" s="8">
-        <v>0</v>
+      <c r="O201" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P201" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q201" s="8" t="s">
         <v>723</v>
@@ -15654,8 +15654,8 @@
       <c r="N208" s="5">
         <v>0.33400000000000002</v>
       </c>
-      <c r="O208" s="5">
-        <v>0</v>
+      <c r="O208" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="P208" s="5">
         <v>-74.120342570000005</v>
@@ -15716,11 +15716,11 @@
       <c r="N209" s="8">
         <v>0.14599999999999999</v>
       </c>
-      <c r="O209" s="8">
-        <v>0</v>
-      </c>
-      <c r="P209" s="8">
-        <v>0</v>
+      <c r="O209" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P209" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q209" s="8" t="s">
         <v>724</v>
@@ -15964,11 +15964,11 @@
       <c r="N213" s="8">
         <v>0.94199999999999995</v>
       </c>
-      <c r="O213" s="8">
-        <v>0</v>
-      </c>
-      <c r="P213" s="8">
-        <v>0</v>
+      <c r="O213" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P213" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q213" s="8" t="s">
         <v>724</v>
@@ -16026,11 +16026,11 @@
       <c r="N214" s="5">
         <v>0.34300000000000003</v>
       </c>
-      <c r="O214" s="5">
-        <v>0</v>
-      </c>
-      <c r="P214" s="5">
-        <v>0</v>
+      <c r="O214" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P214" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q214" s="5" t="s">
         <v>725</v>
@@ -16274,11 +16274,11 @@
       <c r="N218" s="5">
         <v>0.63500000000000001</v>
       </c>
-      <c r="O218" s="5">
-        <v>0</v>
-      </c>
-      <c r="P218" s="5">
-        <v>0</v>
+      <c r="O218" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P218" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q218" s="5" t="s">
         <v>725</v>
@@ -16460,11 +16460,11 @@
       <c r="N221" s="8">
         <v>0.38900000000000001</v>
       </c>
-      <c r="O221" s="8">
-        <v>0</v>
-      </c>
-      <c r="P221" s="8">
-        <v>0</v>
+      <c r="O221" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P221" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q221" s="8" t="s">
         <v>724</v>
@@ -16522,11 +16522,11 @@
       <c r="N222" s="5">
         <v>0.91600000000000004</v>
       </c>
-      <c r="O222" s="5">
-        <v>0</v>
-      </c>
-      <c r="P222" s="5">
-        <v>0</v>
+      <c r="O222" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P222" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q222" s="5" t="s">
         <v>723</v>
@@ -16832,11 +16832,11 @@
       <c r="N227" s="8">
         <v>0.53500000000000003</v>
       </c>
-      <c r="O227" s="8">
-        <v>0</v>
-      </c>
-      <c r="P227" s="8">
-        <v>0</v>
+      <c r="O227" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P227" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q227" s="8" t="s">
         <v>724</v>
@@ -16894,11 +16894,11 @@
       <c r="N228" s="5">
         <v>0.93200000000000005</v>
       </c>
-      <c r="O228" s="5">
-        <v>0</v>
-      </c>
-      <c r="P228" s="5">
-        <v>0</v>
+      <c r="O228" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P228" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q228" s="5" t="s">
         <v>724</v>
@@ -17328,11 +17328,11 @@
       <c r="N235" s="8">
         <v>0.96399999999999997</v>
       </c>
-      <c r="O235" s="8">
-        <v>0</v>
-      </c>
-      <c r="P235" s="8">
-        <v>0</v>
+      <c r="O235" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P235" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q235" s="8" t="s">
         <v>724</v>
@@ -17514,11 +17514,11 @@
       <c r="N238" s="5">
         <v>0.85599999999999998</v>
       </c>
-      <c r="O238" s="5">
-        <v>0</v>
-      </c>
-      <c r="P238" s="5">
-        <v>0</v>
+      <c r="O238" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P238" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q238" s="5" t="s">
         <v>724</v>
@@ -17576,11 +17576,11 @@
       <c r="N239" s="8">
         <v>0.4</v>
       </c>
-      <c r="O239" s="8">
-        <v>0</v>
-      </c>
-      <c r="P239" s="8">
-        <v>0</v>
+      <c r="O239" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P239" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q239" s="8" t="s">
         <v>724</v>
@@ -17638,11 +17638,11 @@
       <c r="N240" s="5">
         <v>0.214</v>
       </c>
-      <c r="O240" s="5">
-        <v>0</v>
-      </c>
-      <c r="P240" s="5">
-        <v>0</v>
+      <c r="O240" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P240" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q240" s="5" t="s">
         <v>724</v>
@@ -17700,11 +17700,11 @@
       <c r="N241" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O241" s="8">
-        <v>0</v>
-      </c>
-      <c r="P241" s="8">
-        <v>0</v>
+      <c r="O241" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P241" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q241" s="8" t="s">
         <v>724</v>
@@ -17762,11 +17762,11 @@
       <c r="N242" s="5">
         <v>0.89400000000000002</v>
       </c>
-      <c r="O242" s="5">
-        <v>0</v>
-      </c>
-      <c r="P242" s="5">
-        <v>0</v>
+      <c r="O242" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P242" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q242" s="5" t="s">
         <v>724</v>
@@ -17824,11 +17824,11 @@
       <c r="N243" s="8">
         <v>0.82899999999999996</v>
       </c>
-      <c r="O243" s="8">
-        <v>0</v>
-      </c>
-      <c r="P243" s="8">
-        <v>0</v>
+      <c r="O243" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P243" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q243" s="8" t="s">
         <v>724</v>
@@ -17948,11 +17948,11 @@
       <c r="N245" s="8">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="O245" s="8">
-        <v>0</v>
-      </c>
-      <c r="P245" s="8">
-        <v>0</v>
+      <c r="O245" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P245" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q245" s="8" t="s">
         <v>724</v>
@@ -18010,11 +18010,11 @@
       <c r="N246" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="O246" s="5">
-        <v>0</v>
-      </c>
-      <c r="P246" s="5">
-        <v>0</v>
+      <c r="O246" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P246" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q246" s="5" t="s">
         <v>724</v>
@@ -18196,11 +18196,11 @@
       <c r="N249" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O249" s="8">
-        <v>0</v>
-      </c>
-      <c r="P249" s="8">
-        <v>0</v>
+      <c r="O249" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P249" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q249" s="8" t="s">
         <v>724</v>
@@ -18258,11 +18258,11 @@
       <c r="N250" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="O250" s="5">
-        <v>0</v>
-      </c>
-      <c r="P250" s="5">
-        <v>0</v>
+      <c r="O250" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P250" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q250" s="5" t="s">
         <v>724</v>
@@ -18444,11 +18444,11 @@
       <c r="N253" s="8">
         <v>0.94699999999999995</v>
       </c>
-      <c r="O253" s="8">
-        <v>0</v>
-      </c>
-      <c r="P253" s="8">
-        <v>0</v>
+      <c r="O253" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P253" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q253" s="8" t="s">
         <v>724</v>
@@ -18506,11 +18506,11 @@
       <c r="N254" s="5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="O254" s="5">
-        <v>0</v>
-      </c>
-      <c r="P254" s="5">
-        <v>0</v>
+      <c r="O254" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P254" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q254" s="5" t="s">
         <v>724</v>
@@ -18692,11 +18692,11 @@
       <c r="N257" s="8">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O257" s="8">
-        <v>0</v>
-      </c>
-      <c r="P257" s="8">
-        <v>0</v>
+      <c r="O257" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P257" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q257" s="8" t="s">
         <v>724</v>
@@ -18816,11 +18816,11 @@
       <c r="N259" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O259" s="8">
-        <v>0</v>
-      </c>
-      <c r="P259" s="8">
-        <v>0</v>
+      <c r="O259" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P259" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q259" s="8" t="s">
         <v>724</v>
@@ -19126,11 +19126,11 @@
       <c r="N264" s="5">
         <v>0.77700000000000002</v>
       </c>
-      <c r="O264" s="5">
-        <v>0</v>
-      </c>
-      <c r="P264" s="5">
-        <v>0</v>
+      <c r="O264" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P264" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q264" s="5" t="s">
         <v>724</v>
@@ -19188,11 +19188,11 @@
       <c r="N265" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O265" s="8">
-        <v>0</v>
-      </c>
-      <c r="P265" s="8">
-        <v>0</v>
+      <c r="O265" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P265" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q265" s="8" t="s">
         <v>724</v>
@@ -19622,11 +19622,11 @@
       <c r="N272" s="5">
         <v>0.65500000000000003</v>
       </c>
-      <c r="O272" s="5">
-        <v>0</v>
-      </c>
-      <c r="P272" s="5">
-        <v>0</v>
+      <c r="O272" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P272" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q272" s="5" t="s">
         <v>724</v>
@@ -19994,11 +19994,11 @@
       <c r="N278" s="5">
         <v>0.89400000000000002</v>
       </c>
-      <c r="O278" s="5">
-        <v>0</v>
-      </c>
-      <c r="P278" s="5">
-        <v>0</v>
+      <c r="O278" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P278" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q278" s="5" t="s">
         <v>724</v>
@@ -20056,11 +20056,11 @@
       <c r="N279" s="8">
         <v>0.6</v>
       </c>
-      <c r="O279" s="8">
-        <v>0</v>
-      </c>
-      <c r="P279" s="8">
-        <v>0</v>
+      <c r="O279" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P279" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q279" s="8" t="s">
         <v>724</v>
@@ -20366,11 +20366,11 @@
       <c r="N284" s="5">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O284" s="5">
-        <v>0</v>
-      </c>
-      <c r="P284" s="5">
-        <v>0</v>
+      <c r="O284" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P284" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q284" s="5" t="s">
         <v>724</v>
@@ -20428,11 +20428,11 @@
       <c r="N285" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="O285" s="8">
-        <v>0</v>
-      </c>
-      <c r="P285" s="8">
-        <v>0</v>
+      <c r="O285" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P285" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q285" s="8" t="s">
         <v>724</v>
@@ -20490,11 +20490,11 @@
       <c r="N286" s="5">
         <v>0.26100000000000001</v>
       </c>
-      <c r="O286" s="5">
-        <v>0</v>
-      </c>
-      <c r="P286" s="5">
-        <v>0</v>
+      <c r="O286" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P286" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q286" s="5" t="s">
         <v>724</v>
@@ -20552,11 +20552,11 @@
       <c r="N287" s="8">
         <v>0.16800000000000001</v>
       </c>
-      <c r="O287" s="8">
-        <v>0</v>
-      </c>
-      <c r="P287" s="8">
-        <v>0</v>
+      <c r="O287" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P287" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q287" s="8" t="s">
         <v>724</v>
@@ -20614,11 +20614,11 @@
       <c r="N288" s="5">
         <v>0.32900000000000001</v>
       </c>
-      <c r="O288" s="5">
-        <v>0</v>
-      </c>
-      <c r="P288" s="5">
-        <v>0</v>
+      <c r="O288" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P288" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q288" s="5" t="s">
         <v>724</v>
@@ -20676,11 +20676,11 @@
       <c r="N289" s="8">
         <v>0.94699999999999995</v>
       </c>
-      <c r="O289" s="8">
-        <v>0</v>
-      </c>
-      <c r="P289" s="8">
-        <v>0</v>
+      <c r="O289" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P289" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q289" s="8" t="s">
         <v>724</v>
@@ -20738,11 +20738,11 @@
       <c r="N290" s="5">
         <v>0.109</v>
       </c>
-      <c r="O290" s="5">
-        <v>0</v>
-      </c>
-      <c r="P290" s="5">
-        <v>0</v>
+      <c r="O290" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P290" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q290" s="5" t="s">
         <v>724</v>
@@ -21048,11 +21048,11 @@
       <c r="N295" s="8">
         <v>0.88400000000000001</v>
       </c>
-      <c r="O295" s="8">
-        <v>0</v>
-      </c>
-      <c r="P295" s="8">
-        <v>0</v>
+      <c r="O295" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P295" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q295" s="8" t="s">
         <v>724</v>
@@ -21172,11 +21172,11 @@
       <c r="N297" s="8">
         <v>0.51500000000000001</v>
       </c>
-      <c r="O297" s="8">
-        <v>0</v>
-      </c>
-      <c r="P297" s="8">
-        <v>0</v>
+      <c r="O297" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P297" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q297" s="8" t="s">
         <v>725</v>
@@ -21296,11 +21296,11 @@
       <c r="N299" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O299" s="8">
-        <v>0</v>
-      </c>
-      <c r="P299" s="8">
-        <v>0</v>
+      <c r="O299" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P299" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q299" s="8" t="s">
         <v>725</v>
@@ -21420,11 +21420,11 @@
       <c r="N301" s="8">
         <v>0.61699999999999999</v>
       </c>
-      <c r="O301" s="8">
-        <v>0</v>
-      </c>
-      <c r="P301" s="8">
-        <v>0</v>
+      <c r="O301" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P301" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q301" s="8" t="s">
         <v>724</v>
@@ -22164,11 +22164,11 @@
       <c r="N313" s="8">
         <v>0.26</v>
       </c>
-      <c r="O313" s="8">
-        <v>0</v>
-      </c>
-      <c r="P313" s="8">
-        <v>0</v>
+      <c r="O313" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P313" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q313" s="8" t="s">
         <v>724</v>
@@ -22226,11 +22226,11 @@
       <c r="N314" s="5">
         <v>0.97399999999999998</v>
       </c>
-      <c r="O314" s="5">
-        <v>0</v>
-      </c>
-      <c r="P314" s="5">
-        <v>0</v>
+      <c r="O314" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P314" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q314" s="5" t="s">
         <v>724</v>
@@ -22288,11 +22288,11 @@
       <c r="N315" s="8">
         <v>0.63500000000000001</v>
       </c>
-      <c r="O315" s="8">
-        <v>0</v>
-      </c>
-      <c r="P315" s="8">
-        <v>0</v>
+      <c r="O315" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P315" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q315" s="8" t="s">
         <v>724</v>
@@ -22350,11 +22350,11 @@
       <c r="N316" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="O316" s="5">
-        <v>0</v>
-      </c>
-      <c r="P316" s="5">
-        <v>0</v>
+      <c r="O316" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P316" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q316" s="5" t="s">
         <v>724</v>
@@ -22412,11 +22412,11 @@
       <c r="N317" s="8">
         <v>0.623</v>
       </c>
-      <c r="O317" s="8">
-        <v>0</v>
-      </c>
-      <c r="P317" s="8">
-        <v>0</v>
+      <c r="O317" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P317" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q317" s="8" t="s">
         <v>724</v>
@@ -22474,11 +22474,11 @@
       <c r="N318" s="5">
         <v>0.77700000000000002</v>
       </c>
-      <c r="O318" s="5">
-        <v>0</v>
-      </c>
-      <c r="P318" s="5">
-        <v>0</v>
+      <c r="O318" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P318" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q318" s="5" t="s">
         <v>724</v>
@@ -22536,11 +22536,11 @@
       <c r="N319" s="8">
         <v>0.80100000000000005</v>
       </c>
-      <c r="O319" s="8">
-        <v>0</v>
-      </c>
-      <c r="P319" s="8">
-        <v>0</v>
+      <c r="O319" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P319" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q319" s="8" t="s">
         <v>724</v>
@@ -22598,11 +22598,11 @@
       <c r="N320" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O320" s="5">
-        <v>0</v>
-      </c>
-      <c r="P320" s="5">
-        <v>0</v>
+      <c r="O320" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P320" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q320" s="5" t="s">
         <v>724</v>
@@ -22660,11 +22660,11 @@
       <c r="N321" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="O321" s="8">
-        <v>0</v>
-      </c>
-      <c r="P321" s="8">
-        <v>0</v>
+      <c r="O321" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P321" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q321" s="8" t="s">
         <v>724</v>
@@ -22722,11 +22722,11 @@
       <c r="N322" s="5">
         <v>0.80500000000000005</v>
       </c>
-      <c r="O322" s="5">
-        <v>0</v>
-      </c>
-      <c r="P322" s="5">
-        <v>0</v>
+      <c r="O322" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P322" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q322" s="5" t="s">
         <v>724</v>
@@ -22784,11 +22784,11 @@
       <c r="N323" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="O323" s="8">
-        <v>0</v>
-      </c>
-      <c r="P323" s="8">
-        <v>0</v>
+      <c r="O323" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P323" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q323" s="8" t="s">
         <v>724</v>
@@ -22846,11 +22846,11 @@
       <c r="N324" s="5">
         <v>0.70199999999999996</v>
       </c>
-      <c r="O324" s="5">
-        <v>0</v>
-      </c>
-      <c r="P324" s="5">
-        <v>0</v>
+      <c r="O324" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P324" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q324" s="5" t="s">
         <v>724</v>
@@ -22908,11 +22908,11 @@
       <c r="N325" s="8">
         <v>0.372</v>
       </c>
-      <c r="O325" s="8">
-        <v>0</v>
-      </c>
-      <c r="P325" s="8">
-        <v>0</v>
+      <c r="O325" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P325" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q325" s="8" t="s">
         <v>724</v>
@@ -22970,11 +22970,11 @@
       <c r="N326" s="5">
         <v>0.66900000000000004</v>
       </c>
-      <c r="O326" s="5">
-        <v>0</v>
-      </c>
-      <c r="P326" s="5">
-        <v>0</v>
+      <c r="O326" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P326" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q326" s="5" t="s">
         <v>724</v>
@@ -23032,11 +23032,11 @@
       <c r="N327" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O327" s="8">
-        <v>0</v>
-      </c>
-      <c r="P327" s="8">
-        <v>0</v>
+      <c r="O327" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P327" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q327" s="8" t="s">
         <v>724</v>
@@ -23094,11 +23094,11 @@
       <c r="N328" s="5">
         <v>0.75700000000000001</v>
       </c>
-      <c r="O328" s="5">
-        <v>0</v>
-      </c>
-      <c r="P328" s="5">
-        <v>0</v>
+      <c r="O328" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P328" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q328" s="5" t="s">
         <v>724</v>
@@ -23156,11 +23156,11 @@
       <c r="N329" s="8">
         <v>0.38800000000000001</v>
       </c>
-      <c r="O329" s="8">
-        <v>0</v>
-      </c>
-      <c r="P329" s="8">
-        <v>0</v>
+      <c r="O329" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P329" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q329" s="8" t="s">
         <v>724</v>
@@ -23218,11 +23218,11 @@
       <c r="N330" s="5">
         <v>0.48799999999999999</v>
       </c>
-      <c r="O330" s="5">
-        <v>0</v>
-      </c>
-      <c r="P330" s="5">
-        <v>0</v>
+      <c r="O330" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P330" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q330" s="5" t="s">
         <v>724</v>
@@ -23280,11 +23280,11 @@
       <c r="N331" s="8">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O331" s="8">
-        <v>0</v>
-      </c>
-      <c r="P331" s="8">
-        <v>0</v>
+      <c r="O331" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P331" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q331" s="8" t="s">
         <v>724</v>
@@ -23342,11 +23342,11 @@
       <c r="N332" s="5">
         <v>0.46300000000000002</v>
       </c>
-      <c r="O332" s="5">
-        <v>0</v>
-      </c>
-      <c r="P332" s="5">
-        <v>0</v>
+      <c r="O332" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P332" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q332" s="5" t="s">
         <v>724</v>
@@ -23404,11 +23404,11 @@
       <c r="N333" s="8">
         <v>0.315</v>
       </c>
-      <c r="O333" s="8">
-        <v>0</v>
-      </c>
-      <c r="P333" s="8">
-        <v>0</v>
+      <c r="O333" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P333" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q333" s="8" t="s">
         <v>724</v>
@@ -23466,11 +23466,11 @@
       <c r="N334" s="5">
         <v>0.45900000000000002</v>
       </c>
-      <c r="O334" s="5">
-        <v>0</v>
-      </c>
-      <c r="P334" s="5">
-        <v>0</v>
+      <c r="O334" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P334" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q334" s="5" t="s">
         <v>724</v>
@@ -23528,11 +23528,11 @@
       <c r="N335" s="8">
         <v>0.316</v>
       </c>
-      <c r="O335" s="8">
-        <v>0</v>
-      </c>
-      <c r="P335" s="8">
-        <v>0</v>
+      <c r="O335" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P335" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q335" s="8" t="s">
         <v>724</v>
@@ -23590,11 +23590,11 @@
       <c r="N336" s="5">
         <v>0.79200000000000004</v>
       </c>
-      <c r="O336" s="5">
-        <v>0</v>
-      </c>
-      <c r="P336" s="5">
-        <v>0</v>
+      <c r="O336" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P336" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q336" s="5" t="s">
         <v>724</v>
@@ -23652,11 +23652,11 @@
       <c r="N337" s="8">
         <v>0.372</v>
       </c>
-      <c r="O337" s="8">
-        <v>0</v>
-      </c>
-      <c r="P337" s="8">
-        <v>0</v>
+      <c r="O337" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P337" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q337" s="8" t="s">
         <v>724</v>
@@ -23714,11 +23714,11 @@
       <c r="N338" s="5">
         <v>0.93600000000000005</v>
       </c>
-      <c r="O338" s="5">
-        <v>0</v>
-      </c>
-      <c r="P338" s="5">
-        <v>0</v>
+      <c r="O338" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P338" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q338" s="5" t="s">
         <v>724</v>
@@ -23776,11 +23776,11 @@
       <c r="N339" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="O339" s="8">
-        <v>0</v>
-      </c>
-      <c r="P339" s="8">
-        <v>0</v>
+      <c r="O339" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P339" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q339" s="8" t="s">
         <v>724</v>
@@ -23900,11 +23900,11 @@
       <c r="N341" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="O341" s="8">
-        <v>0</v>
-      </c>
-      <c r="P341" s="8">
-        <v>0</v>
+      <c r="O341" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P341" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q341" s="8" t="s">
         <v>723</v>
@@ -23962,11 +23962,11 @@
       <c r="N342" s="5">
         <v>0.628</v>
       </c>
-      <c r="O342" s="5">
-        <v>0</v>
-      </c>
-      <c r="P342" s="5">
-        <v>0</v>
+      <c r="O342" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P342" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q342" s="5" t="s">
         <v>723</v>
@@ -24024,11 +24024,11 @@
       <c r="N343" s="8">
         <v>0.66700000000000004</v>
       </c>
-      <c r="O343" s="8">
-        <v>0</v>
-      </c>
-      <c r="P343" s="8">
-        <v>0</v>
+      <c r="O343" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P343" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q343" s="8" t="s">
         <v>723</v>
@@ -24086,11 +24086,11 @@
       <c r="N344" s="5">
         <v>0.53</v>
       </c>
-      <c r="O344" s="5">
-        <v>0</v>
-      </c>
-      <c r="P344" s="5">
-        <v>0</v>
+      <c r="O344" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P344" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q344" s="5" t="s">
         <v>723</v>
@@ -24148,11 +24148,11 @@
       <c r="N345" s="8">
         <v>0.77300000000000002</v>
       </c>
-      <c r="O345" s="8">
-        <v>0</v>
-      </c>
-      <c r="P345" s="8">
-        <v>0</v>
+      <c r="O345" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P345" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q345" s="8" t="s">
         <v>723</v>
@@ -24210,11 +24210,11 @@
       <c r="N346" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="O346" s="5">
-        <v>0</v>
-      </c>
-      <c r="P346" s="5">
-        <v>0</v>
+      <c r="O346" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P346" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q346" s="5" t="s">
         <v>723</v>
@@ -24272,11 +24272,11 @@
       <c r="N347" s="8">
         <v>0.8</v>
       </c>
-      <c r="O347" s="8">
-        <v>0</v>
-      </c>
-      <c r="P347" s="8">
-        <v>0</v>
+      <c r="O347" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P347" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q347" s="8" t="s">
         <v>723</v>
@@ -24334,11 +24334,11 @@
       <c r="N348" s="5">
         <v>0.49099999999999999</v>
       </c>
-      <c r="O348" s="5">
-        <v>0</v>
-      </c>
-      <c r="P348" s="5">
-        <v>0</v>
+      <c r="O348" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P348" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q348" s="5" t="s">
         <v>724</v>
@@ -24458,11 +24458,11 @@
       <c r="N350" s="5">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O350" s="5">
-        <v>0</v>
-      </c>
-      <c r="P350" s="5">
-        <v>0</v>
+      <c r="O350" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P350" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q350" s="5" t="s">
         <v>725</v>
@@ -24520,11 +24520,11 @@
       <c r="N351" s="8">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O351" s="8">
-        <v>0</v>
-      </c>
-      <c r="P351" s="8">
-        <v>0</v>
+      <c r="O351" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P351" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q351" s="8" t="s">
         <v>725</v>
@@ -24582,11 +24582,11 @@
       <c r="N352" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="O352" s="5">
-        <v>0</v>
-      </c>
-      <c r="P352" s="5">
-        <v>0</v>
+      <c r="O352" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P352" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q352" s="5" t="s">
         <v>725</v>
@@ -24644,11 +24644,11 @@
       <c r="N353" s="8">
         <v>0.157</v>
       </c>
-      <c r="O353" s="8">
-        <v>0</v>
-      </c>
-      <c r="P353" s="8">
-        <v>0</v>
+      <c r="O353" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P353" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q353" s="8" t="s">
         <v>725</v>
@@ -24768,11 +24768,11 @@
       <c r="N355" s="8">
         <v>0.30099999999999999</v>
       </c>
-      <c r="O355" s="8">
-        <v>0</v>
-      </c>
-      <c r="P355" s="8">
-        <v>0</v>
+      <c r="O355" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P355" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q355" s="8" t="s">
         <v>724</v>
@@ -24830,11 +24830,11 @@
       <c r="N356" s="5">
         <v>0.34300000000000003</v>
       </c>
-      <c r="O356" s="5">
-        <v>0</v>
-      </c>
-      <c r="P356" s="5">
-        <v>0</v>
+      <c r="O356" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P356" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q356" s="5" t="s">
         <v>724</v>
@@ -24892,11 +24892,11 @@
       <c r="N357" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="O357" s="8">
-        <v>0</v>
-      </c>
-      <c r="P357" s="8">
-        <v>0</v>
+      <c r="O357" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P357" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q357" s="8" t="s">
         <v>724</v>
@@ -24954,11 +24954,11 @@
       <c r="N358" s="5">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O358" s="5">
-        <v>0</v>
-      </c>
-      <c r="P358" s="5">
-        <v>0</v>
+      <c r="O358" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P358" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q358" s="5" t="s">
         <v>724</v>
@@ -25016,11 +25016,11 @@
       <c r="N359" s="8">
         <v>0.36799999999999999</v>
       </c>
-      <c r="O359" s="8">
-        <v>0</v>
-      </c>
-      <c r="P359" s="8">
-        <v>0</v>
+      <c r="O359" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P359" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="Q359" s="8" t="s">
         <v>724</v>
@@ -25078,11 +25078,11 @@
       <c r="N360" s="5">
         <v>0.996</v>
       </c>
-      <c r="O360" s="5">
-        <v>0</v>
-      </c>
-      <c r="P360" s="5">
-        <v>0</v>
+      <c r="O360" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="P360" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="Q360" s="5" t="s">
         <v>724</v>
@@ -25284,64 +25284,64 @@
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A364" s="11">
+      <c r="A364" s="10">
         <v>9999</v>
       </c>
-      <c r="B364" s="12" t="s">
+      <c r="B364" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="C364" s="12" t="s">
+      <c r="C364" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="D364" s="12" t="s">
+      <c r="D364" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E364" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F364" s="12">
-        <v>2024</v>
-      </c>
-      <c r="G364" s="12">
-        <v>2024</v>
-      </c>
-      <c r="H364" s="12">
-        <v>1</v>
-      </c>
-      <c r="I364" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="J364" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="K364" s="12">
-        <v>1</v>
-      </c>
-      <c r="L364" s="12">
-        <v>0</v>
-      </c>
-      <c r="M364" s="12">
+      <c r="E364" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F364" s="11">
+        <v>2024</v>
+      </c>
+      <c r="G364" s="11">
+        <v>2024</v>
+      </c>
+      <c r="H364" s="11">
+        <v>1</v>
+      </c>
+      <c r="I364" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="J364" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="K364" s="11">
+        <v>1</v>
+      </c>
+      <c r="L364" s="11">
+        <v>0</v>
+      </c>
+      <c r="M364" s="11">
         <v>100</v>
       </c>
-      <c r="N364" s="12">
+      <c r="N364" s="11">
         <v>0.34300000000000003</v>
       </c>
-      <c r="O364" s="12">
+      <c r="O364" s="11">
         <v>51.852111600000001</v>
       </c>
-      <c r="P364" s="12">
+      <c r="P364" s="11">
         <v>-104.8618769</v>
       </c>
-      <c r="Q364" s="12" t="s">
+      <c r="Q364" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="R364" s="12" t="s">
+      <c r="R364" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S364" s="12" t="s">
+      <c r="S364" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T364" s="13" t="s">
+      <c r="T364" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -25351,6 +25351,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD54FBCA06F694A882683D7ACFDA923" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="654d623470b4a6fb6721727d56430b4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cd15c362-78d0-46e3-855d-450aec0345ae" xmlns:ns3="919db50e-9b93-4aa7-8f4d-aba87c2cfe80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32782979afd25915a6e5b9a8d07914c" ns2:_="" ns3:_="">
     <xsd:import namespace="cd15c362-78d0-46e3-855d-450aec0345ae"/>
@@ -25599,15 +25608,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25620,13 +25620,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC18504-9E98-46FD-A6B5-F8D478095409}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203DE4BB-EA3C-4DDE-BD14-E491FBCB4234}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{203DE4BB-EA3C-4DDE-BD14-E491FBCB4234}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC18504-9E98-46FD-A6B5-F8D478095409}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cd15c362-78d0-46e3-855d-450aec0345ae"/>
+    <ds:schemaRef ds:uri="919db50e-9b93-4aa7-8f4d-aba87c2cfe80"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01F7C088-D178-46A6-8ED8-7DE77DCF1D21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01F7C088-D178-46A6-8ED8-7DE77DCF1D21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd15c362-78d0-46e3-855d-450aec0345ae"/>
+    <ds:schemaRef ds:uri="919db50e-9b93-4aa7-8f4d-aba87c2cfe80"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>